--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed3/result_data_KNN.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.802000000000001</v>
+        <v>-7.812</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.428</v>
+        <v>5.777</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.618</v>
+        <v>5.090000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.882</v>
+        <v>-8.175000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.334000000000001</v>
+        <v>5.266</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.286</v>
+        <v>-7.562</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.498</v>
+        <v>-7.281999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.228</v>
+        <v>-7.178999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.086</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.834</v>
+        <v>8.73</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.81</v>
+        <v>-7.662999999999999</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>4.621</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,13 +1587,13 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.609999999999999</v>
+        <v>5.100999999999999</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.07</v>
+        <v>-6.778</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.508</v>
+        <v>-7.753</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.76</v>
+        <v>5.880000000000001</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>7.584000000000001</v>
+        <v>7.811</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.007999999999999</v>
+        <v>-8.113</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.63</v>
+        <v>-7.916000000000001</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.267</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.425999999999998</v>
+        <v>-8.228</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.795999999999999</v>
+        <v>-7.886000000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.967999999999999</v>
+        <v>-8.036</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
